--- a/workspaces/mapping/mapping-seed42_scheds.xlsx
+++ b/workspaces/mapping/mapping-seed42_scheds.xlsx
@@ -587,7 +587,7 @@
         <v>50</v>
       </c>
       <c r="D11" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
@@ -601,7 +601,7 @@
         <v>49</v>
       </c>
       <c r="D12" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
@@ -615,7 +615,7 @@
         <v>48</v>
       </c>
       <c r="D13" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14">
@@ -629,7 +629,7 @@
         <v>45</v>
       </c>
       <c r="D14" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15">
@@ -643,7 +643,7 @@
         <v>44</v>
       </c>
       <c r="D15" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16">
@@ -657,7 +657,7 @@
         <v>44</v>
       </c>
       <c r="D16" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17">
@@ -671,7 +671,7 @@
         <v>41</v>
       </c>
       <c r="D17" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18">
@@ -685,7 +685,7 @@
         <v>35</v>
       </c>
       <c r="D18" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19">
@@ -699,7 +699,7 @@
         <v>29</v>
       </c>
       <c r="D19" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20">
@@ -713,7 +713,7 @@
         <v>21</v>
       </c>
       <c r="D20" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
